--- a/docs/電腦打字國小英文乙組決賽名冊.xlsx
+++ b/docs/電腦打字國小英文乙組決賽名冊.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\igogo\Documents\IDEAProjects\readxls\docs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\igogo\Documents\資網中心\試場安排\2019資料\xlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12390"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14380" windowHeight="4140"/>
   </bookViews>
   <sheets>
     <sheet name="電腦打字國小英文乙組決賽名冊" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="277" uniqueCount="196">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="277" uniqueCount="187">
   <si>
     <t>序</t>
   </si>
@@ -45,48 +45,6 @@
     <t>電腦打字國小英文乙組</t>
   </si>
   <si>
-    <t>大甲區日南國小</t>
-  </si>
-  <si>
-    <t>周家佑</t>
-  </si>
-  <si>
-    <t>吳姿慧</t>
-  </si>
-  <si>
-    <t>p34cd6</t>
-  </si>
-  <si>
-    <t>kf90jk2</t>
-  </si>
-  <si>
-    <t>潘暐珉</t>
-  </si>
-  <si>
-    <t>pe72dx8</t>
-  </si>
-  <si>
-    <t>hp56k6</t>
-  </si>
-  <si>
-    <t>吳楷澤</t>
-  </si>
-  <si>
-    <t>tv52r9</t>
-  </si>
-  <si>
-    <t>b46r4</t>
-  </si>
-  <si>
-    <t>陳弘偉</t>
-  </si>
-  <si>
-    <t>pe64xb6</t>
-  </si>
-  <si>
-    <t>hp48r3</t>
-  </si>
-  <si>
     <t>大安區大安國小</t>
   </si>
   <si>
@@ -96,328 +54,304 @@
     <t>吳慧菁</t>
   </si>
   <si>
-    <t>my15nc4</t>
-  </si>
-  <si>
-    <t>a8kf2</t>
-  </si>
-  <si>
-    <t>大肚區追分國小</t>
-  </si>
-  <si>
-    <t>楊承杰</t>
-  </si>
-  <si>
-    <t>張永龍</t>
-  </si>
-  <si>
-    <t>jk76h8</t>
-  </si>
-  <si>
-    <t>my46a5</t>
-  </si>
-  <si>
-    <t>大肚區瑞峰國小</t>
-  </si>
-  <si>
-    <t>黃士耀</t>
-  </si>
-  <si>
-    <t>莊啟宗</t>
-  </si>
-  <si>
-    <t>dx58xb3</t>
-  </si>
-  <si>
-    <t>yg91t3</t>
-  </si>
-  <si>
-    <t>大里區美群國小</t>
-  </si>
-  <si>
-    <t>許紘睿</t>
-  </si>
-  <si>
-    <t>黃紹維</t>
-  </si>
-  <si>
-    <t>d5wh5</t>
-  </si>
-  <si>
-    <t>k44wh7</t>
-  </si>
-  <si>
-    <t>陳秋榮</t>
-  </si>
-  <si>
-    <t>pe21b8</t>
-  </si>
-  <si>
-    <t>kf55c2</t>
-  </si>
-  <si>
-    <t>大雅區文雅國小</t>
-  </si>
-  <si>
-    <t>黃秉庠</t>
-  </si>
-  <si>
-    <t>張啟祥</t>
-  </si>
-  <si>
-    <t>hp20jk1</t>
-  </si>
-  <si>
-    <t>frs47e6</t>
-  </si>
-  <si>
-    <t>大雅區陽明國小</t>
-  </si>
-  <si>
-    <t>張明惠</t>
-  </si>
-  <si>
-    <t>林尚逸</t>
-  </si>
-  <si>
-    <t>k93n2</t>
-  </si>
-  <si>
-    <t>jkf43p8</t>
-  </si>
-  <si>
-    <t>北屯區仁愛國小</t>
-  </si>
-  <si>
-    <t>陳俊儒</t>
-  </si>
-  <si>
-    <t>江秀紋</t>
-  </si>
-  <si>
-    <t>v18x6</t>
-  </si>
-  <si>
-    <t>rs29p4</t>
-  </si>
-  <si>
-    <t>劉姿妤</t>
-  </si>
-  <si>
-    <t>jkf67j1</t>
-  </si>
-  <si>
-    <t>hp39bj4</t>
-  </si>
-  <si>
-    <t>北屯區四維國小</t>
-  </si>
-  <si>
-    <t>李翌豪</t>
-  </si>
-  <si>
-    <t>盧韋儒</t>
-  </si>
-  <si>
-    <t>v72m9</t>
-  </si>
-  <si>
-    <t>xb71y6</t>
-  </si>
-  <si>
-    <t>北屯區明道普霖斯頓小學</t>
-  </si>
-  <si>
-    <t>蘇澔威</t>
-  </si>
-  <si>
-    <t>張維恩</t>
-  </si>
-  <si>
-    <t>sm86bj3</t>
-  </si>
-  <si>
-    <t>etv18m3</t>
-  </si>
-  <si>
-    <t>許鳳芸</t>
-  </si>
-  <si>
-    <t>張維真</t>
-  </si>
-  <si>
-    <t>bj85nc4</t>
-  </si>
-  <si>
-    <t>nc27dx6</t>
-  </si>
-  <si>
-    <t>陳忠甫</t>
-  </si>
-  <si>
-    <t>廖思絜</t>
-  </si>
-  <si>
-    <t>e94nc2</t>
-  </si>
-  <si>
-    <t>tv90v6</t>
-  </si>
-  <si>
-    <t>北區育仁小學</t>
-  </si>
-  <si>
-    <t>陳宥蓁</t>
-  </si>
-  <si>
-    <t>盧書錦</t>
-  </si>
-  <si>
-    <t>et34g6</t>
-  </si>
-  <si>
-    <t>d56cd7</t>
-  </si>
-  <si>
-    <t>劉韋辰</t>
-  </si>
-  <si>
-    <t>yg89b3</t>
-  </si>
-  <si>
-    <t>a59et7</t>
-  </si>
-  <si>
-    <t>陳奕妡</t>
-  </si>
-  <si>
-    <t>c20v3</t>
-  </si>
-  <si>
-    <t>kf87d1</t>
-  </si>
-  <si>
-    <t>黃可昀</t>
-  </si>
-  <si>
-    <t>hp68rs6</t>
-  </si>
-  <si>
-    <t>sm64my8</t>
-  </si>
-  <si>
-    <t>外埔區外埔國小</t>
-  </si>
-  <si>
-    <t>張晉維</t>
-  </si>
-  <si>
-    <t>陳文鴻</t>
-  </si>
-  <si>
-    <t>hpe23a3</t>
-  </si>
-  <si>
-    <t>m62sm8</t>
-  </si>
-  <si>
-    <t>陳柏諺</t>
-  </si>
-  <si>
-    <t>tv80yg3</t>
-  </si>
-  <si>
-    <t>gwh37gw8</t>
-  </si>
-  <si>
-    <t>陳蓁妍</t>
-  </si>
-  <si>
-    <t>陳雅玲</t>
-  </si>
-  <si>
-    <t>et51nc3</t>
-  </si>
-  <si>
-    <t>n86m4</t>
+    <t>hp33tv4</t>
+  </si>
+  <si>
+    <t>xbj1rs4</t>
+  </si>
+  <si>
+    <t>太平區坪林國小</t>
+  </si>
+  <si>
+    <t>古德云</t>
+  </si>
+  <si>
+    <t>陳永陸</t>
+  </si>
+  <si>
+    <t>nc15pe4</t>
+  </si>
+  <si>
+    <t>hpe55g4</t>
+  </si>
+  <si>
+    <t>朱馨誼</t>
+  </si>
+  <si>
+    <t>e19d5</t>
+  </si>
+  <si>
+    <t>myg30x1</t>
+  </si>
+  <si>
+    <t>北區太平國小</t>
+  </si>
+  <si>
+    <t>王絜瑜</t>
+  </si>
+  <si>
+    <t>劉安哲</t>
+  </si>
+  <si>
+    <t>rs15h9</t>
+  </si>
+  <si>
+    <t>gw42nc7</t>
+  </si>
+  <si>
+    <t>韓克禮</t>
+  </si>
+  <si>
+    <t>t75s7</t>
+  </si>
+  <si>
+    <t>myg74dx7</t>
+  </si>
+  <si>
+    <t>北區健行國小</t>
+  </si>
+  <si>
+    <t>李睿晨</t>
+  </si>
+  <si>
+    <t>王環源</t>
+  </si>
+  <si>
+    <t>jkf58rs9</t>
+  </si>
+  <si>
+    <t>ygw14k9</t>
+  </si>
+  <si>
+    <t>陸子傑</t>
+  </si>
+  <si>
+    <t>m98m3</t>
+  </si>
+  <si>
+    <t>et7yg9</t>
   </si>
   <si>
     <t>后里區七星國小</t>
   </si>
   <si>
-    <t>鄭又綺</t>
+    <t>呂禹成</t>
   </si>
   <si>
     <t>胡安寧</t>
   </si>
   <si>
-    <t>rs77pe8</t>
-  </si>
-  <si>
-    <t>hp43y4</t>
-  </si>
-  <si>
-    <t>游絜茹</t>
-  </si>
-  <si>
-    <t>cd87cd3</t>
-  </si>
-  <si>
-    <t>dx78x7</t>
+    <t>cdx38my3</t>
+  </si>
+  <si>
+    <t>t52r9</t>
+  </si>
+  <si>
+    <t>劉柏良</t>
+  </si>
+  <si>
+    <t>dx65y7</t>
+  </si>
+  <si>
+    <t>bjk10m1</t>
+  </si>
+  <si>
+    <t>周炘卉</t>
+  </si>
+  <si>
+    <t>p96j6</t>
+  </si>
+  <si>
+    <t>gw33wh3</t>
+  </si>
+  <si>
+    <t>邵宸宇</t>
+  </si>
+  <si>
+    <t>c73bj5</t>
+  </si>
+  <si>
+    <t>ncd34nc4</t>
   </si>
   <si>
     <t>后里區月眉國小</t>
   </si>
   <si>
+    <t>陳益林</t>
+  </si>
+  <si>
+    <t>趙姿婷</t>
+  </si>
+  <si>
+    <t>bj80p3</t>
+  </si>
+  <si>
+    <t>bjk66j2</t>
+  </si>
+  <si>
     <t>陳星宇</t>
   </si>
   <si>
-    <t>趙姿婷</t>
-  </si>
-  <si>
-    <t>cdx62k4</t>
-  </si>
-  <si>
-    <t>nc43d4</t>
-  </si>
-  <si>
-    <t>邵科佑</t>
-  </si>
-  <si>
-    <t>x41f3</t>
-  </si>
-  <si>
-    <t>hpe23fr9</t>
-  </si>
-  <si>
-    <t>西屯區何厝國小</t>
-  </si>
-  <si>
-    <t>楊宗恩</t>
-  </si>
-  <si>
-    <t>陳勝裕</t>
-  </si>
-  <si>
-    <t>s39wh8</t>
-  </si>
-  <si>
-    <t>tv32t3</t>
-  </si>
-  <si>
-    <t>西區忠明國小</t>
-  </si>
-  <si>
-    <t>陳彥甫</t>
-  </si>
-  <si>
-    <t>王姿琁</t>
-  </si>
-  <si>
-    <t>gwh98et4</t>
-  </si>
-  <si>
-    <t>h17h2</t>
+    <t>rsm2s3</t>
+  </si>
+  <si>
+    <t>rs42y2</t>
+  </si>
+  <si>
+    <t>張銀巽</t>
+  </si>
+  <si>
+    <t>g84wh9</t>
+  </si>
+  <si>
+    <t>gwh56my6</t>
+  </si>
+  <si>
+    <t>蕭家竣</t>
+  </si>
+  <si>
+    <t>m50et7</t>
+  </si>
+  <si>
+    <t>kf61n7</t>
+  </si>
+  <si>
+    <t>西屯區大仁國小</t>
+  </si>
+  <si>
+    <t>洪梓芸</t>
+  </si>
+  <si>
+    <t>徐連政</t>
+  </si>
+  <si>
+    <t>cdx7y5</t>
+  </si>
+  <si>
+    <t>frs42et2</t>
+  </si>
+  <si>
+    <t>陳思辰</t>
+  </si>
+  <si>
+    <t>dxb3r6</t>
+  </si>
+  <si>
+    <t>sm34rs4</t>
+  </si>
+  <si>
+    <t>徐紀堯</t>
+  </si>
+  <si>
+    <t>dxb96s2</t>
+  </si>
+  <si>
+    <t>myg53hp4</t>
+  </si>
+  <si>
+    <t>江育宏</t>
+  </si>
+  <si>
+    <t>jk63sm8</t>
+  </si>
+  <si>
+    <t>kf64j1</t>
+  </si>
+  <si>
+    <t>西屯區重慶國小</t>
+  </si>
+  <si>
+    <t>楊汶玲</t>
+  </si>
+  <si>
+    <t>歐陽國和</t>
+  </si>
+  <si>
+    <t>c7j5</t>
+  </si>
+  <si>
+    <t>m59w2</t>
+  </si>
+  <si>
+    <t>魏得祐</t>
+  </si>
+  <si>
+    <t>gwh17c4</t>
+  </si>
+  <si>
+    <t>d72r1</t>
+  </si>
+  <si>
+    <t>沙鹿區公明國小</t>
+  </si>
+  <si>
+    <t>袁家祥</t>
+  </si>
+  <si>
+    <t>謝映珠</t>
+  </si>
+  <si>
+    <t>hp38rs4</t>
+  </si>
+  <si>
+    <t>my17my4</t>
+  </si>
+  <si>
+    <t>沙鹿區文光國小</t>
+  </si>
+  <si>
+    <t>陳億宗</t>
+  </si>
+  <si>
+    <t>卓宛俞</t>
+  </si>
+  <si>
+    <t>v71k8</t>
+  </si>
+  <si>
+    <t>h42tv4</t>
+  </si>
+  <si>
+    <t>林韋岑</t>
+  </si>
+  <si>
+    <t>et94kf2</t>
+  </si>
+  <si>
+    <t>nc23h5</t>
+  </si>
+  <si>
+    <t>劉聖鑫</t>
+  </si>
+  <si>
+    <t>wh15b8</t>
+  </si>
+  <si>
+    <t>xb69bj1</t>
+  </si>
+  <si>
+    <t>白延益</t>
+  </si>
+  <si>
+    <t>fr35pe3</t>
+  </si>
+  <si>
+    <t>dx64k7</t>
+  </si>
+  <si>
+    <t>沙鹿區鹿峰國小</t>
+  </si>
+  <si>
+    <t>齊柏崴</t>
+  </si>
+  <si>
+    <t>劉景銘</t>
+  </si>
+  <si>
+    <t>rs58e3</t>
+  </si>
+  <si>
+    <t>w19cd1</t>
   </si>
   <si>
     <t>東區進德國小</t>
@@ -426,187 +360,226 @@
     <t>王棨民</t>
   </si>
   <si>
-    <t>林敬涵</t>
-  </si>
-  <si>
-    <t>pet63yg2</t>
-  </si>
-  <si>
-    <t>yg94pe4</t>
-  </si>
-  <si>
-    <t>陳曄霆</t>
-  </si>
-  <si>
-    <t>v73y6</t>
-  </si>
-  <si>
-    <t>y21t1</t>
-  </si>
-  <si>
-    <t>洪菁霙</t>
-  </si>
-  <si>
-    <t>v91et9</t>
-  </si>
-  <si>
-    <t>yg60my4</t>
-  </si>
-  <si>
-    <t>清水區西寧國小</t>
-  </si>
-  <si>
-    <t>林柏鈞</t>
-  </si>
-  <si>
-    <t>丁浩展</t>
-  </si>
-  <si>
-    <t>fr53fr4</t>
-  </si>
-  <si>
-    <t>g13x7</t>
-  </si>
-  <si>
-    <t>黃紹崴</t>
-  </si>
-  <si>
-    <t>b35h4</t>
-  </si>
-  <si>
-    <t>dx39jk1</t>
+    <t>王添進</t>
+  </si>
+  <si>
+    <t>fr14yg6</t>
+  </si>
+  <si>
+    <t>f65nc1</t>
+  </si>
+  <si>
+    <t>東勢區新盛國小</t>
+  </si>
+  <si>
+    <t>徐承暘</t>
+  </si>
+  <si>
+    <t>潘信佑</t>
+  </si>
+  <si>
+    <t>fr92c4</t>
+  </si>
+  <si>
+    <t>pet63wh3</t>
+  </si>
+  <si>
+    <t>神岡區圳堵國小</t>
+  </si>
+  <si>
+    <t>曾子桓</t>
+  </si>
+  <si>
+    <t>蔡阜鋼</t>
+  </si>
+  <si>
+    <t>d40v4</t>
+  </si>
+  <si>
+    <t>ncd40et8</t>
+  </si>
+  <si>
+    <t>王宇祥</t>
+  </si>
+  <si>
+    <t>et35pe5</t>
+  </si>
+  <si>
+    <t>f45fr6</t>
+  </si>
+  <si>
+    <t>簡均靜</t>
+  </si>
+  <si>
+    <t>p26cd3</t>
+  </si>
+  <si>
+    <t>my42p5</t>
+  </si>
+  <si>
+    <t>神岡區岸裡國小</t>
+  </si>
+  <si>
+    <t>王文妡</t>
+  </si>
+  <si>
+    <t>楊濬丞</t>
+  </si>
+  <si>
+    <t>e74e1</t>
+  </si>
+  <si>
+    <t>rs16a1</t>
+  </si>
+  <si>
+    <t>陳品文</t>
+  </si>
+  <si>
+    <t>xb32y8</t>
+  </si>
+  <si>
+    <t>xb13nc1</t>
+  </si>
+  <si>
+    <t>陳韋蓁</t>
+  </si>
+  <si>
+    <t>my33dx4</t>
+  </si>
+  <si>
+    <t>f93s2</t>
+  </si>
+  <si>
+    <t>梧棲區永寧國小</t>
+  </si>
+  <si>
+    <t>王鉦傑</t>
+  </si>
+  <si>
+    <t>王希賢</t>
+  </si>
+  <si>
+    <t>yg23cd6</t>
+  </si>
+  <si>
+    <t>smy33wh2</t>
+  </si>
+  <si>
+    <t>王詠正</t>
+  </si>
+  <si>
+    <t>gw5j3</t>
+  </si>
+  <si>
+    <t>h14s7</t>
+  </si>
+  <si>
+    <t>清水區三田國小</t>
+  </si>
+  <si>
+    <t>高梓桓</t>
+  </si>
+  <si>
+    <t>鄭博旗</t>
+  </si>
+  <si>
+    <t>d13y1</t>
+  </si>
+  <si>
+    <t>pe73dx3</t>
   </si>
   <si>
     <t>龍井區龍山國小</t>
   </si>
   <si>
-    <t>陳昱為</t>
+    <t>王宜盈</t>
   </si>
   <si>
     <t>陳韻如</t>
   </si>
   <si>
-    <t>bj56kf9</t>
-  </si>
-  <si>
-    <t>pe30wh2</t>
-  </si>
-  <si>
-    <t>龍井區龍井國小</t>
-  </si>
-  <si>
-    <t>歐丞竣</t>
-  </si>
-  <si>
-    <t>趙子如</t>
-  </si>
-  <si>
-    <t>v3r3</t>
-  </si>
-  <si>
-    <t>wh85et6</t>
-  </si>
-  <si>
-    <t>豐原區合作國小</t>
-  </si>
-  <si>
-    <t>徐永馨</t>
-  </si>
-  <si>
-    <t>陳宏祐</t>
-  </si>
-  <si>
-    <t>m72c7</t>
-  </si>
-  <si>
-    <t>d29sm1</t>
-  </si>
-  <si>
-    <t>豐原區福陽國小</t>
-  </si>
-  <si>
-    <t>卓承駿</t>
-  </si>
-  <si>
-    <t>蘇峻民</t>
-  </si>
-  <si>
-    <t>g55my3</t>
-  </si>
-  <si>
-    <t>my41m2</t>
-  </si>
-  <si>
-    <t>豐原區豐原國小</t>
-  </si>
-  <si>
-    <t>尤昱媖</t>
-  </si>
-  <si>
-    <t>陳信雄</t>
-  </si>
-  <si>
-    <t>rs24y2</t>
-  </si>
-  <si>
-    <t>a26sm2</t>
+    <t>dx13cd1</t>
+  </si>
+  <si>
+    <t>r67sm5</t>
+  </si>
+  <si>
+    <t>豐原區翁子國小</t>
+  </si>
+  <si>
+    <t>朱信豪</t>
+  </si>
+  <si>
+    <t>陳俊宏</t>
+  </si>
+  <si>
+    <t>smy20xb8</t>
+  </si>
+  <si>
+    <t>gw45m4</t>
+  </si>
+  <si>
+    <t>陳漢享</t>
+  </si>
+  <si>
+    <t>sm54d6</t>
+  </si>
+  <si>
+    <t>yg67pe2</t>
   </si>
   <si>
     <t>霧峰區四德國小</t>
   </si>
   <si>
-    <t>何秉家</t>
+    <t>廖晏瑀</t>
   </si>
   <si>
     <t>周世忠</t>
   </si>
   <si>
-    <t>tv59g5</t>
-  </si>
-  <si>
-    <t>bjk87r2</t>
-  </si>
-  <si>
-    <t>林家瑀</t>
-  </si>
-  <si>
-    <t>wh4sm7</t>
-  </si>
-  <si>
-    <t>et53xb4</t>
-  </si>
-  <si>
-    <t>胡育騰</t>
-  </si>
-  <si>
-    <t>g28p7</t>
-  </si>
-  <si>
-    <t>ncd95e3</t>
+    <t>pe11xb3</t>
+  </si>
+  <si>
+    <t>kfr44s4</t>
   </si>
   <si>
     <t>霧峰區吉峰國小</t>
   </si>
   <si>
-    <t>李恩齊</t>
+    <t>許馨云</t>
   </si>
   <si>
     <t>阮培洲</t>
   </si>
   <si>
-    <t>x35y2</t>
-  </si>
-  <si>
-    <t>pe7bj3</t>
-  </si>
-  <si>
-    <t>許馨云</t>
-  </si>
-  <si>
-    <t>y78n6</t>
-  </si>
-  <si>
-    <t>myg74cd4</t>
+    <t>sm56xb7</t>
+  </si>
+  <si>
+    <t>ygw87g2</t>
+  </si>
+  <si>
+    <t>賈梓右</t>
+  </si>
+  <si>
+    <t>j56cd8</t>
+  </si>
+  <si>
+    <t>myg9fr8</t>
+  </si>
+  <si>
+    <t>霧峰區峰谷國小</t>
+  </si>
+  <si>
+    <t>吳敏銓</t>
+  </si>
+  <si>
+    <t>林文彥</t>
+  </si>
+  <si>
+    <t>rs21yg3</t>
+  </si>
+  <si>
+    <t>dx17et2</t>
   </si>
 </sst>
 </file>
@@ -1608,10 +1581,11 @@
   <cols>
     <col min="1" max="1" width="3.1796875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="20.1796875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="22.1796875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.36328125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="6.7265625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="8.90625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="7.81640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.26953125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.81640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.4">
@@ -1668,19 +1642,19 @@
         <v>7</v>
       </c>
       <c r="C3" s="8" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="D3" s="8" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E3" s="8" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="F3" s="8" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="G3" s="8" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="4" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.4">
@@ -1691,19 +1665,19 @@
         <v>7</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="G4" s="5" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="5" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.4">
@@ -1714,19 +1688,19 @@
         <v>7</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>8</v>
+        <v>21</v>
       </c>
       <c r="D5" s="8" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="E5" s="8" t="s">
-        <v>10</v>
+        <v>23</v>
       </c>
       <c r="F5" s="8" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="G5" s="8" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="6" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.4">
@@ -1737,19 +1711,19 @@
         <v>7</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D6" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="E6" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="E6" s="5" t="s">
-        <v>24</v>
-      </c>
       <c r="F6" s="5" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="G6" s="5" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="7" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.4">
@@ -1760,19 +1734,19 @@
         <v>7</v>
       </c>
       <c r="C7" s="8" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D7" s="8" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="E7" s="8" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="F7" s="8" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="G7" s="8" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="8" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.4">
@@ -1783,13 +1757,13 @@
         <v>7</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="F8" s="5" t="s">
         <v>35</v>
@@ -1852,19 +1826,19 @@
         <v>7</v>
       </c>
       <c r="C11" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="D11" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="D11" s="8" t="s">
+      <c r="E11" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="F11" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="E11" s="8" t="s">
+      <c r="G11" s="8" t="s">
         <v>47</v>
-      </c>
-      <c r="F11" s="8" t="s">
-        <v>48</v>
-      </c>
-      <c r="G11" s="8" t="s">
-        <v>49</v>
       </c>
     </row>
     <row r="12" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.4">
@@ -1875,19 +1849,19 @@
         <v>7</v>
       </c>
       <c r="C12" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="D12" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="E12" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="F12" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="G12" s="5" t="s">
         <v>50</v>
-      </c>
-      <c r="D12" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="E12" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="F12" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="G12" s="5" t="s">
-        <v>54</v>
       </c>
     </row>
     <row r="13" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.4">
@@ -1898,19 +1872,19 @@
         <v>7</v>
       </c>
       <c r="C13" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="D13" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="E13" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="F13" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="G13" s="8" t="s">
         <v>55</v>
-      </c>
-      <c r="D13" s="8" t="s">
-        <v>56</v>
-      </c>
-      <c r="E13" s="8" t="s">
-        <v>57</v>
-      </c>
-      <c r="F13" s="8" t="s">
-        <v>58</v>
-      </c>
-      <c r="G13" s="8" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="14" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.4">
@@ -1921,19 +1895,19 @@
         <v>7</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="E14" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="F14" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="F14" s="5" t="s">
-        <v>61</v>
-      </c>
       <c r="G14" s="5" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
     </row>
     <row r="15" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.4">
@@ -1944,19 +1918,19 @@
         <v>7</v>
       </c>
       <c r="C15" s="8" t="s">
-        <v>63</v>
+        <v>51</v>
       </c>
       <c r="D15" s="8" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="E15" s="8" t="s">
-        <v>65</v>
+        <v>53</v>
       </c>
       <c r="F15" s="8" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="G15" s="8" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
     </row>
     <row r="16" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.4">
@@ -1967,19 +1941,19 @@
         <v>7</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>68</v>
+        <v>51</v>
       </c>
       <c r="D16" s="5" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="E16" s="5" t="s">
-        <v>70</v>
+        <v>53</v>
       </c>
       <c r="F16" s="5" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="G16" s="5" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
     </row>
     <row r="17" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.4">
@@ -1990,19 +1964,19 @@
         <v>7</v>
       </c>
       <c r="C17" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="D17" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="E17" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="F17" s="8" t="s">
         <v>68</v>
       </c>
-      <c r="D17" s="8" t="s">
-        <v>73</v>
-      </c>
-      <c r="E17" s="8" t="s">
-        <v>74</v>
-      </c>
-      <c r="F17" s="8" t="s">
-        <v>75</v>
-      </c>
       <c r="G17" s="8" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
     </row>
     <row r="18" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.4">
@@ -2013,19 +1987,19 @@
         <v>7</v>
       </c>
       <c r="C18" s="5" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="D18" s="5" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="E18" s="5" t="s">
-        <v>78</v>
+        <v>67</v>
       </c>
       <c r="F18" s="5" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="G18" s="5" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
     </row>
     <row r="19" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.4">
@@ -2036,19 +2010,19 @@
         <v>7</v>
       </c>
       <c r="C19" s="8" t="s">
-        <v>81</v>
+        <v>65</v>
       </c>
       <c r="D19" s="8" t="s">
-        <v>82</v>
+        <v>73</v>
       </c>
       <c r="E19" s="8" t="s">
-        <v>83</v>
+        <v>67</v>
       </c>
       <c r="F19" s="8" t="s">
-        <v>84</v>
+        <v>74</v>
       </c>
       <c r="G19" s="8" t="s">
-        <v>85</v>
+        <v>75</v>
       </c>
     </row>
     <row r="20" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.4">
@@ -2059,19 +2033,19 @@
         <v>7</v>
       </c>
       <c r="C20" s="5" t="s">
-        <v>81</v>
+        <v>65</v>
       </c>
       <c r="D20" s="5" t="s">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="E20" s="5" t="s">
-        <v>83</v>
+        <v>67</v>
       </c>
       <c r="F20" s="5" t="s">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="G20" s="5" t="s">
-        <v>88</v>
+        <v>78</v>
       </c>
     </row>
     <row r="21" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.4">
@@ -2082,19 +2056,19 @@
         <v>7</v>
       </c>
       <c r="C21" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="D21" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="E21" s="8" t="s">
         <v>81</v>
       </c>
-      <c r="D21" s="8" t="s">
-        <v>89</v>
-      </c>
-      <c r="E21" s="8" t="s">
+      <c r="F21" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="G21" s="8" t="s">
         <v>83</v>
-      </c>
-      <c r="F21" s="8" t="s">
-        <v>90</v>
-      </c>
-      <c r="G21" s="8" t="s">
-        <v>91</v>
       </c>
     </row>
     <row r="22" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.4">
@@ -2105,19 +2079,19 @@
         <v>7</v>
       </c>
       <c r="C22" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="D22" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="E22" s="5" t="s">
         <v>81</v>
       </c>
-      <c r="D22" s="5" t="s">
-        <v>92</v>
-      </c>
-      <c r="E22" s="5" t="s">
-        <v>83</v>
-      </c>
       <c r="F22" s="5" t="s">
-        <v>93</v>
+        <v>85</v>
       </c>
       <c r="G22" s="5" t="s">
-        <v>94</v>
+        <v>86</v>
       </c>
     </row>
     <row r="23" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.4">
@@ -2128,19 +2102,19 @@
         <v>7</v>
       </c>
       <c r="C23" s="8" t="s">
-        <v>95</v>
+        <v>87</v>
       </c>
       <c r="D23" s="8" t="s">
-        <v>96</v>
+        <v>88</v>
       </c>
       <c r="E23" s="8" t="s">
-        <v>97</v>
+        <v>89</v>
       </c>
       <c r="F23" s="8" t="s">
-        <v>98</v>
+        <v>90</v>
       </c>
       <c r="G23" s="8" t="s">
-        <v>99</v>
+        <v>91</v>
       </c>
     </row>
     <row r="24" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.4">
@@ -2151,19 +2125,19 @@
         <v>7</v>
       </c>
       <c r="C24" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="D24" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="E24" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="F24" s="5" t="s">
         <v>95</v>
       </c>
-      <c r="D24" s="5" t="s">
-        <v>100</v>
-      </c>
-      <c r="E24" s="5" t="s">
-        <v>97</v>
-      </c>
-      <c r="F24" s="5" t="s">
-        <v>101</v>
-      </c>
       <c r="G24" s="5" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
     </row>
     <row r="25" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.4">
@@ -2174,19 +2148,19 @@
         <v>7</v>
       </c>
       <c r="C25" s="8" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="D25" s="8" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="E25" s="8" t="s">
-        <v>104</v>
+        <v>94</v>
       </c>
       <c r="F25" s="8" t="s">
-        <v>105</v>
+        <v>98</v>
       </c>
       <c r="G25" s="8" t="s">
-        <v>106</v>
+        <v>99</v>
       </c>
     </row>
     <row r="26" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.4">
@@ -2197,19 +2171,19 @@
         <v>7</v>
       </c>
       <c r="C26" s="5" t="s">
-        <v>107</v>
+        <v>92</v>
       </c>
       <c r="D26" s="5" t="s">
-        <v>108</v>
+        <v>100</v>
       </c>
       <c r="E26" s="5" t="s">
-        <v>109</v>
+        <v>94</v>
       </c>
       <c r="F26" s="5" t="s">
-        <v>110</v>
+        <v>101</v>
       </c>
       <c r="G26" s="5" t="s">
-        <v>111</v>
+        <v>102</v>
       </c>
     </row>
     <row r="27" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.4">
@@ -2220,19 +2194,19 @@
         <v>7</v>
       </c>
       <c r="C27" s="8" t="s">
-        <v>107</v>
+        <v>92</v>
       </c>
       <c r="D27" s="8" t="s">
-        <v>112</v>
+        <v>103</v>
       </c>
       <c r="E27" s="8" t="s">
-        <v>109</v>
+        <v>94</v>
       </c>
       <c r="F27" s="8" t="s">
-        <v>113</v>
+        <v>104</v>
       </c>
       <c r="G27" s="8" t="s">
-        <v>114</v>
+        <v>105</v>
       </c>
     </row>
     <row r="28" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.4">
@@ -2243,19 +2217,19 @@
         <v>7</v>
       </c>
       <c r="C28" s="5" t="s">
-        <v>115</v>
+        <v>106</v>
       </c>
       <c r="D28" s="5" t="s">
-        <v>116</v>
+        <v>107</v>
       </c>
       <c r="E28" s="5" t="s">
-        <v>117</v>
+        <v>108</v>
       </c>
       <c r="F28" s="5" t="s">
-        <v>118</v>
+        <v>109</v>
       </c>
       <c r="G28" s="5" t="s">
-        <v>119</v>
+        <v>110</v>
       </c>
     </row>
     <row r="29" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.4">
@@ -2266,19 +2240,19 @@
         <v>7</v>
       </c>
       <c r="C29" s="8" t="s">
+        <v>111</v>
+      </c>
+      <c r="D29" s="8" t="s">
+        <v>112</v>
+      </c>
+      <c r="E29" s="8" t="s">
+        <v>113</v>
+      </c>
+      <c r="F29" s="8" t="s">
+        <v>114</v>
+      </c>
+      <c r="G29" s="8" t="s">
         <v>115</v>
-      </c>
-      <c r="D29" s="8" t="s">
-        <v>120</v>
-      </c>
-      <c r="E29" s="8" t="s">
-        <v>117</v>
-      </c>
-      <c r="F29" s="8" t="s">
-        <v>121</v>
-      </c>
-      <c r="G29" s="8" t="s">
-        <v>122</v>
       </c>
     </row>
     <row r="30" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.4">
@@ -2289,19 +2263,19 @@
         <v>7</v>
       </c>
       <c r="C30" s="5" t="s">
-        <v>123</v>
+        <v>116</v>
       </c>
       <c r="D30" s="5" t="s">
-        <v>124</v>
+        <v>117</v>
       </c>
       <c r="E30" s="5" t="s">
-        <v>125</v>
+        <v>118</v>
       </c>
       <c r="F30" s="5" t="s">
-        <v>126</v>
+        <v>119</v>
       </c>
       <c r="G30" s="5" t="s">
-        <v>127</v>
+        <v>120</v>
       </c>
     </row>
     <row r="31" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.4">
@@ -2312,19 +2286,19 @@
         <v>7</v>
       </c>
       <c r="C31" s="8" t="s">
-        <v>128</v>
+        <v>121</v>
       </c>
       <c r="D31" s="8" t="s">
-        <v>129</v>
+        <v>122</v>
       </c>
       <c r="E31" s="8" t="s">
-        <v>130</v>
+        <v>123</v>
       </c>
       <c r="F31" s="8" t="s">
-        <v>131</v>
+        <v>124</v>
       </c>
       <c r="G31" s="8" t="s">
-        <v>132</v>
+        <v>125</v>
       </c>
     </row>
     <row r="32" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.4">
@@ -2335,19 +2309,19 @@
         <v>7</v>
       </c>
       <c r="C32" s="5" t="s">
-        <v>133</v>
+        <v>121</v>
       </c>
       <c r="D32" s="5" t="s">
-        <v>134</v>
+        <v>126</v>
       </c>
       <c r="E32" s="5" t="s">
-        <v>135</v>
+        <v>123</v>
       </c>
       <c r="F32" s="5" t="s">
-        <v>136</v>
+        <v>127</v>
       </c>
       <c r="G32" s="5" t="s">
-        <v>137</v>
+        <v>128</v>
       </c>
     </row>
     <row r="33" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.4">
@@ -2358,19 +2332,19 @@
         <v>7</v>
       </c>
       <c r="C33" s="8" t="s">
-        <v>133</v>
+        <v>121</v>
       </c>
       <c r="D33" s="8" t="s">
-        <v>138</v>
+        <v>129</v>
       </c>
       <c r="E33" s="8" t="s">
-        <v>135</v>
+        <v>123</v>
       </c>
       <c r="F33" s="8" t="s">
-        <v>139</v>
+        <v>130</v>
       </c>
       <c r="G33" s="8" t="s">
-        <v>140</v>
+        <v>131</v>
       </c>
     </row>
     <row r="34" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.4">
@@ -2381,19 +2355,19 @@
         <v>7</v>
       </c>
       <c r="C34" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="D34" s="5" t="s">
         <v>133</v>
       </c>
-      <c r="D34" s="5" t="s">
-        <v>141</v>
-      </c>
       <c r="E34" s="5" t="s">
+        <v>134</v>
+      </c>
+      <c r="F34" s="5" t="s">
         <v>135</v>
       </c>
-      <c r="F34" s="5" t="s">
-        <v>142</v>
-      </c>
       <c r="G34" s="5" t="s">
-        <v>143</v>
+        <v>136</v>
       </c>
     </row>
     <row r="35" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.4">
@@ -2404,19 +2378,19 @@
         <v>7</v>
       </c>
       <c r="C35" s="8" t="s">
-        <v>144</v>
+        <v>132</v>
       </c>
       <c r="D35" s="8" t="s">
-        <v>145</v>
+        <v>137</v>
       </c>
       <c r="E35" s="8" t="s">
-        <v>146</v>
+        <v>134</v>
       </c>
       <c r="F35" s="8" t="s">
-        <v>147</v>
+        <v>138</v>
       </c>
       <c r="G35" s="8" t="s">
-        <v>148</v>
+        <v>139</v>
       </c>
     </row>
     <row r="36" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.4">
@@ -2427,19 +2401,19 @@
         <v>7</v>
       </c>
       <c r="C36" s="5" t="s">
-        <v>144</v>
+        <v>132</v>
       </c>
       <c r="D36" s="5" t="s">
-        <v>149</v>
+        <v>140</v>
       </c>
       <c r="E36" s="5" t="s">
-        <v>146</v>
+        <v>134</v>
       </c>
       <c r="F36" s="5" t="s">
-        <v>150</v>
+        <v>141</v>
       </c>
       <c r="G36" s="5" t="s">
-        <v>151</v>
+        <v>142</v>
       </c>
     </row>
     <row r="37" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.4">
@@ -2450,19 +2424,19 @@
         <v>7</v>
       </c>
       <c r="C37" s="8" t="s">
-        <v>152</v>
+        <v>143</v>
       </c>
       <c r="D37" s="8" t="s">
-        <v>153</v>
+        <v>144</v>
       </c>
       <c r="E37" s="8" t="s">
-        <v>154</v>
+        <v>145</v>
       </c>
       <c r="F37" s="8" t="s">
-        <v>155</v>
+        <v>146</v>
       </c>
       <c r="G37" s="8" t="s">
-        <v>156</v>
+        <v>147</v>
       </c>
     </row>
     <row r="38" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.4">
@@ -2473,19 +2447,19 @@
         <v>7</v>
       </c>
       <c r="C38" s="5" t="s">
-        <v>157</v>
+        <v>143</v>
       </c>
       <c r="D38" s="5" t="s">
-        <v>158</v>
+        <v>148</v>
       </c>
       <c r="E38" s="5" t="s">
-        <v>159</v>
+        <v>145</v>
       </c>
       <c r="F38" s="5" t="s">
-        <v>160</v>
+        <v>149</v>
       </c>
       <c r="G38" s="5" t="s">
-        <v>161</v>
+        <v>150</v>
       </c>
     </row>
     <row r="39" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.4">
@@ -2496,19 +2470,19 @@
         <v>7</v>
       </c>
       <c r="C39" s="8" t="s">
-        <v>162</v>
+        <v>151</v>
       </c>
       <c r="D39" s="8" t="s">
-        <v>163</v>
+        <v>152</v>
       </c>
       <c r="E39" s="8" t="s">
-        <v>164</v>
+        <v>153</v>
       </c>
       <c r="F39" s="8" t="s">
-        <v>165</v>
+        <v>154</v>
       </c>
       <c r="G39" s="8" t="s">
-        <v>166</v>
+        <v>155</v>
       </c>
     </row>
     <row r="40" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.4">
@@ -2519,19 +2493,19 @@
         <v>7</v>
       </c>
       <c r="C40" s="5" t="s">
-        <v>167</v>
+        <v>156</v>
       </c>
       <c r="D40" s="5" t="s">
-        <v>168</v>
+        <v>157</v>
       </c>
       <c r="E40" s="5" t="s">
-        <v>169</v>
+        <v>158</v>
       </c>
       <c r="F40" s="5" t="s">
-        <v>170</v>
+        <v>159</v>
       </c>
       <c r="G40" s="5" t="s">
-        <v>171</v>
+        <v>160</v>
       </c>
     </row>
     <row r="41" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.4">
@@ -2542,19 +2516,19 @@
         <v>7</v>
       </c>
       <c r="C41" s="8" t="s">
-        <v>172</v>
+        <v>161</v>
       </c>
       <c r="D41" s="8" t="s">
-        <v>173</v>
+        <v>162</v>
       </c>
       <c r="E41" s="8" t="s">
-        <v>174</v>
+        <v>163</v>
       </c>
       <c r="F41" s="8" t="s">
-        <v>175</v>
+        <v>164</v>
       </c>
       <c r="G41" s="8" t="s">
-        <v>176</v>
+        <v>165</v>
       </c>
     </row>
     <row r="42" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.4">
@@ -2565,19 +2539,19 @@
         <v>7</v>
       </c>
       <c r="C42" s="5" t="s">
-        <v>177</v>
+        <v>161</v>
       </c>
       <c r="D42" s="5" t="s">
-        <v>178</v>
+        <v>166</v>
       </c>
       <c r="E42" s="5" t="s">
-        <v>179</v>
+        <v>163</v>
       </c>
       <c r="F42" s="5" t="s">
-        <v>180</v>
+        <v>167</v>
       </c>
       <c r="G42" s="5" t="s">
-        <v>181</v>
+        <v>168</v>
       </c>
     </row>
     <row r="43" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.4">
@@ -2588,19 +2562,19 @@
         <v>7</v>
       </c>
       <c r="C43" s="8" t="s">
-        <v>177</v>
+        <v>169</v>
       </c>
       <c r="D43" s="8" t="s">
-        <v>182</v>
+        <v>170</v>
       </c>
       <c r="E43" s="8" t="s">
-        <v>179</v>
+        <v>171</v>
       </c>
       <c r="F43" s="8" t="s">
-        <v>183</v>
+        <v>172</v>
       </c>
       <c r="G43" s="8" t="s">
-        <v>184</v>
+        <v>173</v>
       </c>
     </row>
     <row r="44" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.4">
@@ -2611,19 +2585,19 @@
         <v>7</v>
       </c>
       <c r="C44" s="5" t="s">
+        <v>174</v>
+      </c>
+      <c r="D44" s="5" t="s">
+        <v>175</v>
+      </c>
+      <c r="E44" s="5" t="s">
+        <v>176</v>
+      </c>
+      <c r="F44" s="5" t="s">
         <v>177</v>
       </c>
-      <c r="D44" s="5" t="s">
-        <v>185</v>
-      </c>
-      <c r="E44" s="5" t="s">
-        <v>179</v>
-      </c>
-      <c r="F44" s="5" t="s">
-        <v>186</v>
-      </c>
       <c r="G44" s="5" t="s">
-        <v>187</v>
+        <v>178</v>
       </c>
     </row>
     <row r="45" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.4">
@@ -2634,19 +2608,19 @@
         <v>7</v>
       </c>
       <c r="C45" s="8" t="s">
-        <v>188</v>
+        <v>174</v>
       </c>
       <c r="D45" s="8" t="s">
-        <v>189</v>
+        <v>179</v>
       </c>
       <c r="E45" s="8" t="s">
-        <v>190</v>
+        <v>176</v>
       </c>
       <c r="F45" s="8" t="s">
-        <v>191</v>
+        <v>180</v>
       </c>
       <c r="G45" s="8" t="s">
-        <v>192</v>
+        <v>181</v>
       </c>
     </row>
     <row r="46" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.4">
@@ -2657,19 +2631,19 @@
         <v>7</v>
       </c>
       <c r="C46" s="5" t="s">
-        <v>188</v>
+        <v>182</v>
       </c>
       <c r="D46" s="5" t="s">
-        <v>193</v>
+        <v>183</v>
       </c>
       <c r="E46" s="5" t="s">
-        <v>190</v>
+        <v>184</v>
       </c>
       <c r="F46" s="5" t="s">
-        <v>194</v>
+        <v>185</v>
       </c>
       <c r="G46" s="5" t="s">
-        <v>195</v>
+        <v>186</v>
       </c>
     </row>
   </sheetData>
